--- a/static/related/eventhub/Carrega_Masiva_ConfluentCost.xlsx
+++ b/static/related/eventhub/Carrega_Masiva_ConfluentCost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/AutogestiEventHub/Documents compartits/General/01 GEH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.lopez.lopez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{DC8F4D1A-7C23-41CB-A26C-0547A6B3C730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3260FBCC-F7FE-4A61-9F77-2954054FA15B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B722D-874C-430B-BE99-480A8D5CC740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FBCD5E-35DA-4C56-B6B4-EF7E6F466492}">
   <dimension ref="A2:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,17 +561,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080B8EE705A6FB640A392FA9120FC9746" ma:contentTypeVersion="6" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="1cb15f47e4f9490f6ecdf2c8401f2011">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c19636ad-4cc7-4ec7-835d-9d0377047e68" xmlns:ns3="7f20e183-2084-488f-808b-08e8c83328e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19cdb9f05606de7859ce58132a53ad6a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010080B8EE705A6FB640A392FA9120FC9746" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6828a790ed4f63ebee65ce7465358a6e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c19636ad-4cc7-4ec7-835d-9d0377047e68" xmlns:ns3="7f20e183-2084-488f-808b-08e8c83328e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2ac3997074c8daa615ebcd9163cb61e" ns2:_="" ns3:_="">
     <xsd:import namespace="c19636ad-4cc7-4ec7-835d-9d0377047e68"/>
     <xsd:import namespace="7f20e183-2084-488f-808b-08e8c83328e9"/>
     <xsd:element name="properties">
@@ -620,7 +611,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f20e183-2084-488f-808b-08e8c83328e9" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -639,7 +630,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -656,8 +647,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -746,6 +737,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADF255D-6915-484C-A8D2-CB3927C9DC84}">
   <ds:schemaRefs>
@@ -764,6 +764,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE7F3198-D6FD-4DCE-83EA-6A0879AB23A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c19636ad-4cc7-4ec7-835d-9d0377047e68"/>
+    <ds:schemaRef ds:uri="7f20e183-2084-488f-808b-08e8c83328e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4111C06-624E-4BD9-A4B9-AD7427986EDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -771,10 +790,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{394580C4-D906-49C1-85BA-F481F2BD5483}"/>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
